--- a/CDR Dimensions.xlsx
+++ b/CDR Dimensions.xlsx
@@ -1,21 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Documents\GitHub\157A\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27022"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="6780"/>
+    <workbookView xWindow="-20" yWindow="0" windowWidth="20560" windowHeight="13580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -25,15 +23,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t>Rigid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AR </t>
-  </si>
-  <si>
-    <t>TR</t>
-  </si>
   <si>
     <t>Sheet</t>
   </si>
@@ -110,12 +99,25 @@
   <si>
     <t>Length [m] (z)</t>
   </si>
+  <si>
+    <t>λ (Taper Ratio)</t>
+  </si>
+  <si>
+    <t>A (Aspect Ratio)</t>
+  </si>
+  <si>
+    <t>Airfoil</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,6 +142,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -165,11 +183,11 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -178,7 +196,7 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -186,10 +204,10 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -197,7 +215,7 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -208,27 +226,27 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="double">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -236,29 +254,29 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="double">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="double">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="double">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -266,36 +284,36 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="double">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="double">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -303,31 +321,35 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -359,6 +381,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -368,9 +402,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -380,17 +411,36 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -449,7 +499,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -484,7 +534,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -661,7 +711,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -672,122 +722,122 @@
   <dimension ref="B1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" customWidth="1"/>
-    <col min="11" max="11" width="15.42578125" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" customWidth="1"/>
+    <col min="7" max="7" width="13.5" customWidth="1"/>
+    <col min="9" max="9" width="14.83203125" customWidth="1"/>
+    <col min="10" max="10" width="11.83203125" customWidth="1"/>
+    <col min="11" max="11" width="15.5" customWidth="1"/>
+    <col min="12" max="12" width="12.5" customWidth="1"/>
     <col min="13" max="13" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="13"/>
-      <c r="G2" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="17"/>
+    <row r="1" spans="2:13" ht="15" thickBot="1"/>
+    <row r="2" spans="2:13" ht="15" thickBot="1">
+      <c r="B2" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="17"/>
+      <c r="G2" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="20"/>
     </row>
-    <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" ht="15" thickBot="1">
       <c r="B3" s="8"/>
       <c r="C3" s="9" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G3" s="5"/>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="M3" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" ht="15" thickTop="1">
+      <c r="B4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="23">
+        <v>0.60580000000000001</v>
+      </c>
+      <c r="D4" s="23">
+        <v>0.60580000000000001</v>
+      </c>
+      <c r="E4" s="24">
+        <v>0.60580000000000001</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="M3" s="20" t="s">
-        <v>15</v>
+      <c r="H4" s="11">
+        <v>1.2699999999999999E-2</v>
+      </c>
+      <c r="I4" s="11">
+        <v>2.2200000000000001E-2</v>
+      </c>
+      <c r="J4" s="11">
+        <v>0.32229999999999998</v>
+      </c>
+      <c r="K4" s="11">
+        <v>7.6200000000000004E-2</v>
+      </c>
+      <c r="L4" s="11">
+        <v>7.6200000000000004E-2</v>
+      </c>
+      <c r="M4" s="12">
+        <v>5.0799999999999998E-2</v>
       </c>
     </row>
-    <row r="4" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.60580000000000001</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.60580000000000001</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0.60580000000000001</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="14">
-        <v>1.2699999999999999E-2</v>
-      </c>
-      <c r="I4" s="14">
-        <v>2.2200000000000001E-2</v>
-      </c>
-      <c r="J4" s="14">
-        <v>0.32229999999999998</v>
-      </c>
-      <c r="K4" s="14">
-        <v>7.6200000000000004E-2</v>
-      </c>
-      <c r="L4" s="14">
-        <v>7.6200000000000004E-2</v>
-      </c>
-      <c r="M4" s="18">
-        <v>5.0799999999999998E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13">
       <c r="B5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1">
+        <v>18</v>
+      </c>
+      <c r="C5" s="25">
         <f>C4^2/C6</f>
         <v>6.9244083018867926</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="25">
         <f>D4^2/D6</f>
         <v>12.172260033167497</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="26">
         <f>E4^2/E6</f>
         <v>4.4136336740829822</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H5" s="1">
         <v>0.3</v>
@@ -801,30 +851,30 @@
       <c r="K5" s="1">
         <v>0.127</v>
       </c>
-      <c r="L5" s="14">
+      <c r="L5" s="11">
         <v>1.2699999999999999E-2</v>
       </c>
       <c r="M5" s="2">
         <v>5.0799999999999998E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" ht="17" thickBot="1">
       <c r="B6" s="6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="21">
         <f>0.0603/2</f>
         <v>3.015E-2</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="22">
         <f>C6+D6</f>
         <v>8.3150000000000002E-2</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H6" s="3">
         <v>1.2699999999999999E-2</v>
@@ -845,9 +895,9 @@
         <v>1.2699999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13">
       <c r="B7" s="6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1">
         <v>0.17499999999999999</v>
@@ -860,9 +910,9 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13">
       <c r="B8" s="6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -875,19 +925,19 @@
         <v>2.5399999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" ht="15" thickBot="1">
       <c r="B9" s="7" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C9" s="3">
         <f>C8/C7</f>
         <v>0</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="27">
         <f>D8/D7</f>
         <v>0.33866666666666667</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="28">
         <f>E8/E7</f>
         <v>0.1016</v>
       </c>
@@ -898,6 +948,11 @@
     <mergeCell ref="G2:M2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>